--- a/out/production/CmdShop/users.xlsx
+++ b/out/production/CmdShop/users.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,10 @@
   </si>
   <si>
     <t>桂林电子科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hzg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +374,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -398,8 +402,8 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>51151578</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
         <v>15246604968</v>
